--- a/glTFparameterExtraction/glTF-Wall-Dimension-GUI/output/extras_data.xlsx
+++ b/glTFparameterExtraction/glTF-Wall-Dimension-GUI/output/extras_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[17.01357078552246, 23.682453155517578, -0.08429521322250366], [20.994535446166992, 23.682453155517578, -0.08429521322250366], [17.01357078552246, 23.98311996459961, -0.08429521322250366], [17.01357078552246, 23.682453155517578, 2.7922632694244385], [20.994535446166992, 23.98311996459961, 2.7922632694244385], [17.01357078552246, 23.98311996459961, 2.7922632694244385], [20.994535446166992, 23.682453155517578, 2.7922632694244385], [20.994535446166992, 23.98311996459961, -0.08429521322250366]]</t>
+          <t>[[14.50497055053711, 26.582836151123047, 0.15780577063560486], [14.863057136535645, 26.582836151123047, 0.15780577063560486], [14.50497055053711, 30.324413299560547, 0.15780577063560486], [14.50497055053711, 26.582836151123047, 3.165790557861328], [14.863057136535645, 30.324413299560547, 3.165790557861328], [14.50497055053711, 30.324413299560547, 3.165790557861328], [14.863057136535645, 26.582836151123047, 3.165790557861328], [14.863057136535645, 30.324413299560547, 0.15780577063560486]]</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>urn:uuid:e50dc576-6931-11ef-82f3-8c554a00f1ad</t>
+          <t>urn:uuid:f07a4dc7-6931-11ef-8384-8c554a00f1ad</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wall_2 </t>
+          <t>Wall_5</t>
         </is>
       </c>
     </row>
